--- a/data/trans_orig/P6710-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>27781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18788</v>
+        <v>18117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40408</v>
+        <v>40473</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1032997812263139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06986007088491795</v>
+        <v>0.06736559663227883</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1502519352686215</v>
+        <v>0.1504924296737191</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -763,19 +763,19 @@
         <v>16181</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9228</v>
+        <v>9608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25507</v>
+        <v>25582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1003302110994461</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05721997701675707</v>
+        <v>0.05957796002106643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.158158813945232</v>
+        <v>0.1586261136035678</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -784,19 +784,19 @@
         <v>43962</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31977</v>
+        <v>31860</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58667</v>
+        <v>58628</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1021865678588307</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07432826845216915</v>
+        <v>0.07405631325740111</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1363665590281009</v>
+        <v>0.1362759451136125</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>22957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14723</v>
+        <v>14414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33942</v>
+        <v>34148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08536023706695403</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05474502019687541</v>
+        <v>0.05359573113061109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1262078646060632</v>
+        <v>0.1269755178230976</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -834,19 +834,19 @@
         <v>15477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8615</v>
+        <v>8843</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25410</v>
+        <v>24473</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09596785360699325</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05341624420586913</v>
+        <v>0.05483391892447793</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1575597092389283</v>
+        <v>0.1517483681629349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -855,19 +855,19 @@
         <v>38434</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27389</v>
+        <v>27166</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51972</v>
+        <v>50982</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08933675219372848</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06366347727397033</v>
+        <v>0.06314541818404332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1208052906900088</v>
+        <v>0.1185038479998324</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>34494</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24599</v>
+        <v>23905</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46975</v>
+        <v>46809</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1282593150447179</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09146719590575048</v>
+        <v>0.0888874622961586</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1746686902722574</v>
+        <v>0.1740514597337101</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -905,19 +905,19 @@
         <v>29538</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20054</v>
+        <v>19997</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40567</v>
+        <v>39701</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.183150753810689</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1243491452788534</v>
+        <v>0.1239913566530818</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2515419469537276</v>
+        <v>0.2461671736317823</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -926,19 +926,19 @@
         <v>64031</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49241</v>
+        <v>50742</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>81100</v>
+        <v>80215</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1488366648913489</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1144567608849895</v>
+        <v>0.1179468324223337</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1885110405353378</v>
+        <v>0.1864547718787601</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>50054</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37870</v>
+        <v>38980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63488</v>
+        <v>65273</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1861181139607841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1408137354132754</v>
+        <v>0.1449404970166181</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2360693209770216</v>
+        <v>0.2427070457436134</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -976,19 +976,19 @@
         <v>28637</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19128</v>
+        <v>19621</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39161</v>
+        <v>40227</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1775677336669547</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1186024998098747</v>
+        <v>0.1216641684469781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2428241073094716</v>
+        <v>0.2494311154826383</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -997,19 +997,19 @@
         <v>78691</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64393</v>
+        <v>63210</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94160</v>
+        <v>95392</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1829128023387295</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1496766392666633</v>
+        <v>0.1469268525802825</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2188693300617205</v>
+        <v>0.2217321296036486</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>133652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>116510</v>
+        <v>118941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148983</v>
+        <v>150295</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4969625527012301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4332245257746529</v>
+        <v>0.44226469483062</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5539693913405248</v>
+        <v>0.5588475355146258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>67</v>
@@ -1047,19 +1047,19 @@
         <v>71442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59208</v>
+        <v>58866</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85258</v>
+        <v>84998</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.442983447815917</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3671215655719483</v>
+        <v>0.365002080729076</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5286509687811376</v>
+        <v>0.5270377888098948</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>198</v>
@@ -1068,19 +1068,19 @@
         <v>205094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>184311</v>
+        <v>182945</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>225838</v>
+        <v>227005</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4767272127173623</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.428418858164076</v>
+        <v>0.4252443280702484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5249452280906447</v>
+        <v>0.5276588852940709</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>44113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32383</v>
+        <v>31797</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59773</v>
+        <v>57734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1079544558705848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07924853006542788</v>
+        <v>0.07781361258142402</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1462778647523605</v>
+        <v>0.1412889414638808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1193,19 +1193,19 @@
         <v>28355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19024</v>
+        <v>19352</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40377</v>
+        <v>41132</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1056651677555516</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07089280423434867</v>
+        <v>0.07211492267379158</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1504633637308588</v>
+        <v>0.153280345333438</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1214,19 +1214,19 @@
         <v>72468</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58037</v>
+        <v>55645</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90769</v>
+        <v>89120</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1070469941845286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08573071116648412</v>
+        <v>0.08219618405530878</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1340811117818808</v>
+        <v>0.1316449220815643</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>30170</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20217</v>
+        <v>19927</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43582</v>
+        <v>42050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07383232170489468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04947557679229912</v>
+        <v>0.04876709113096529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1066565335692639</v>
+        <v>0.1029058784714045</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1264,19 +1264,19 @@
         <v>17141</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10586</v>
+        <v>9638</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26771</v>
+        <v>26966</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06387464115498141</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03944907378611329</v>
+        <v>0.03591616295403025</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0997610216466331</v>
+        <v>0.1004883606564528</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>44</v>
@@ -1285,19 +1285,19 @@
         <v>47310</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35216</v>
+        <v>35137</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>62177</v>
+        <v>62749</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06988514986501362</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05201998237489442</v>
+        <v>0.05190323290023283</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09184618474913468</v>
+        <v>0.0926911924632705</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>83434</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>66974</v>
+        <v>66367</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100870</v>
+        <v>101517</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2041838794156208</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1639020355050619</v>
+        <v>0.1624152062707186</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2468522903793532</v>
+        <v>0.2484372995705429</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1335,19 +1335,19 @@
         <v>46120</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34858</v>
+        <v>34633</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59766</v>
+        <v>60216</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1718645855327763</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.129897785504999</v>
+        <v>0.1290604162064082</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2227175864718139</v>
+        <v>0.2243960297679835</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>118</v>
@@ -1356,19 +1356,19 @@
         <v>129554</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>108714</v>
+        <v>109132</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>152497</v>
+        <v>151545</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1913726824647089</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1605877058189122</v>
+        <v>0.1612059150930844</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.225262571000633</v>
+        <v>0.2238566008261861</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>87270</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70266</v>
+        <v>70780</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104293</v>
+        <v>104973</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2135712026812609</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1719579690164096</v>
+        <v>0.1732161051251374</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2552306790309784</v>
+        <v>0.2568931603073336</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1406,19 +1406,19 @@
         <v>65791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52504</v>
+        <v>51526</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81719</v>
+        <v>80577</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2451690160699728</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1956565229675931</v>
+        <v>0.1920112955236427</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3045245859778503</v>
+        <v>0.3002688266042253</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -1427,19 +1427,19 @@
         <v>153061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129821</v>
+        <v>132324</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177253</v>
+        <v>176431</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2260964085848412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1917668962816068</v>
+        <v>0.1954642918501195</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2618311148683669</v>
+        <v>0.2606171525506332</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>163637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>142533</v>
+        <v>143001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183668</v>
+        <v>187243</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4004581403276388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3488116058888913</v>
+        <v>0.3499571102529745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4494792761899951</v>
+        <v>0.4582278712784898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -1477,19 +1477,19 @@
         <v>110942</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93274</v>
+        <v>95335</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127841</v>
+        <v>127763</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4134265894867179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3475867966505326</v>
+        <v>0.3552656041322401</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4763989689364748</v>
+        <v>0.476110826268178</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>250</v>
@@ -1498,19 +1498,19 @@
         <v>274579</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>245138</v>
+        <v>248108</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>300645</v>
+        <v>300374</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4055987649009077</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3621083225347906</v>
+        <v>0.3664965906983055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4441025065951246</v>
+        <v>0.443701274181863</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>28882</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19659</v>
+        <v>18653</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41683</v>
+        <v>40268</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09160128931311197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06235122539002739</v>
+        <v>0.05915925647386287</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1322038688128267</v>
+        <v>0.1277157154961702</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1623,19 +1623,19 @@
         <v>30336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20687</v>
+        <v>20409</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42129</v>
+        <v>42045</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1441996100397399</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09833365040138384</v>
+        <v>0.09700960751875165</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2002564670719732</v>
+        <v>0.1998560066050528</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -1644,19 +1644,19 @@
         <v>59218</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44502</v>
+        <v>45518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76142</v>
+        <v>75614</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1126513748337673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08465721209129441</v>
+        <v>0.0865899677977028</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1448464332299442</v>
+        <v>0.1438430015459869</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>19344</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11837</v>
+        <v>12148</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29188</v>
+        <v>29724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06135091955379841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03754295494035235</v>
+        <v>0.03852760521515776</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09257396967975147</v>
+        <v>0.09427285320646199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1694,19 +1694,19 @@
         <v>19852</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11886</v>
+        <v>11704</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30806</v>
+        <v>30681</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09436562287991028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05650092138585662</v>
+        <v>0.0556328923922411</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1464330694918639</v>
+        <v>0.1458370721455671</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1715,19 +1715,19 @@
         <v>39196</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27975</v>
+        <v>27292</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53319</v>
+        <v>53537</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0745635529392953</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05321736739588721</v>
+        <v>0.05191835231205104</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1014302367879329</v>
+        <v>0.1018454427375823</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>74118</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58280</v>
+        <v>58038</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>91472</v>
+        <v>91591</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2350741302625544</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1848406376716669</v>
+        <v>0.1840737284356368</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.290113737664437</v>
+        <v>0.2904914580047269</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -1765,19 +1765,19 @@
         <v>35589</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24378</v>
+        <v>24468</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49202</v>
+        <v>48341</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1691687543009603</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1158760137321468</v>
+        <v>0.1163063231525159</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2338759788003252</v>
+        <v>0.2297832427975863</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>95</v>
@@ -1786,19 +1786,19 @@
         <v>109707</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92344</v>
+        <v>91370</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>130040</v>
+        <v>131306</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2086985011341483</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1756680494538783</v>
+        <v>0.1738147570482775</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2473776194143607</v>
+        <v>0.2497857596943523</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>51974</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39265</v>
+        <v>39773</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66809</v>
+        <v>66780</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1648422459388228</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1245351619571774</v>
+        <v>0.1261459866612971</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2118930331279386</v>
+        <v>0.2118022121425728</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -1836,19 +1836,19 @@
         <v>39736</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28678</v>
+        <v>28872</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52109</v>
+        <v>53023</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1888776562006194</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.136315077161746</v>
+        <v>0.1372385896707944</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2476932521567372</v>
+        <v>0.2520378777534296</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -1857,19 +1857,19 @@
         <v>91710</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75007</v>
+        <v>74165</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110431</v>
+        <v>110112</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1744613256840573</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1426869717594907</v>
+        <v>0.1410866228160288</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2100747018282591</v>
+        <v>0.2094682225084322</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>140979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123076</v>
+        <v>122150</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160573</v>
+        <v>160474</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4471314149317124</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3903507612299231</v>
+        <v>0.3874126912465107</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5092783609168942</v>
+        <v>0.5089625572715841</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -1907,19 +1907,19 @@
         <v>84864</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70823</v>
+        <v>70786</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100865</v>
+        <v>101008</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4033883565787701</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3366457841189414</v>
+        <v>0.3364730714410306</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4794487648451707</v>
+        <v>0.4801292283644928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>202</v>
@@ -1928,19 +1928,19 @@
         <v>225842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>201925</v>
+        <v>201978</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>250818</v>
+        <v>249783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4296252454087319</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3841270868932597</v>
+        <v>0.3842267436434683</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4771373049040155</v>
+        <v>0.4751676162332322</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>37813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27143</v>
+        <v>26663</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49445</v>
+        <v>49718</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09137704453888015</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06559250769178387</v>
+        <v>0.06443178704667048</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1194847099930483</v>
+        <v>0.1201444151226324</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -2053,19 +2053,19 @@
         <v>47939</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35832</v>
+        <v>35653</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61600</v>
+        <v>63360</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.161020677507153</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1203574996561686</v>
+        <v>0.1197550757905474</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2069068732971356</v>
+        <v>0.2128180623810654</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>83</v>
@@ -2074,19 +2074,19 @@
         <v>85752</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68591</v>
+        <v>70573</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>103514</v>
+        <v>104945</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1205170388613091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09639811736051017</v>
+        <v>0.09918355654130036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1454797892004191</v>
+        <v>0.1474905729018842</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>39536</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27611</v>
+        <v>28224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>54758</v>
+        <v>56938</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09553935043638509</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06672180987518182</v>
+        <v>0.06820348603244947</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1323236285868973</v>
+        <v>0.137592730017667</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -2124,19 +2124,19 @@
         <v>39433</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>29241</v>
+        <v>28582</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>52064</v>
+        <v>52569</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1324502435931991</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09821721117161812</v>
+        <v>0.09600298244695793</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1748765605932599</v>
+        <v>0.1765723310498001</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>71</v>
@@ -2145,19 +2145,19 @@
         <v>78969</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>61636</v>
+        <v>63493</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>97325</v>
+        <v>98252</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1109834502224393</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0866244061214894</v>
+        <v>0.08923368861088833</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1367818276111268</v>
+        <v>0.138085140592268</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>101542</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>84939</v>
+        <v>84967</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>120105</v>
+        <v>118133</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2453794943040907</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2052557037346742</v>
+        <v>0.2053238582146777</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2902353137719999</v>
+        <v>0.2854718588015794</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>63</v>
@@ -2195,19 +2195,19 @@
         <v>65088</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50996</v>
+        <v>51406</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>79303</v>
+        <v>80465</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2186225754679934</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1712905771194897</v>
+        <v>0.1726686795072594</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2663711162680627</v>
+        <v>0.2702733921090766</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>164</v>
@@ -2216,19 +2216,19 @@
         <v>166630</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>143751</v>
+        <v>143784</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>192035</v>
+        <v>190480</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2341839775032258</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2020294400852577</v>
+        <v>0.2020755215318977</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2698878639704934</v>
+        <v>0.2677028841832155</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>111801</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>95969</v>
+        <v>94953</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>129599</v>
+        <v>130777</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2701691294581331</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2319110581732164</v>
+        <v>0.2294562761452889</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3131797371639639</v>
+        <v>0.3160252338910783</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -2266,19 +2266,19 @@
         <v>53738</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40462</v>
+        <v>40726</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67413</v>
+        <v>68021</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1805006212427445</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1359083285952466</v>
+        <v>0.1367938433537106</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2264335808185799</v>
+        <v>0.2284762243904053</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -2287,19 +2287,19 @@
         <v>165539</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>144117</v>
+        <v>142877</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>189230</v>
+        <v>190187</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2326504115376097</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.20254332237414</v>
+        <v>0.2008012180210726</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2659468184592655</v>
+        <v>0.2672910314276663</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>123125</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>105763</v>
+        <v>104834</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>143146</v>
+        <v>141629</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2975349812625109</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2555786787803865</v>
+        <v>0.2533340469122727</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3459150030446717</v>
+        <v>0.3422503344734994</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>88</v>
@@ -2337,19 +2337,19 @@
         <v>91520</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>76369</v>
+        <v>76081</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>107540</v>
+        <v>107968</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.30740588218891</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2565160176737301</v>
+        <v>0.2555484718697917</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.361214556997557</v>
+        <v>0.3626533107855118</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>204</v>
@@ -2358,19 +2358,19 @@
         <v>214645</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>189603</v>
+        <v>190693</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>240889</v>
+        <v>241790</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3016651218754161</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2664700711897742</v>
+        <v>0.2680022429683226</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3385486437169489</v>
+        <v>0.3398144739031168</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>138589</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>115653</v>
+        <v>116299</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>161445</v>
+        <v>163880</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09852233575429521</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08221712366291971</v>
+        <v>0.08267644145177092</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1147706967523816</v>
+        <v>0.1165014380001159</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>114</v>
@@ -2483,19 +2483,19 @@
         <v>122811</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>105214</v>
+        <v>103585</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>143560</v>
+        <v>145850</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.130967719040766</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1122023104065496</v>
+        <v>0.1104653545029503</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1530948616540439</v>
+        <v>0.1555370182591926</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>243</v>
@@ -2504,19 +2504,19 @@
         <v>261400</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>230672</v>
+        <v>230547</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>294958</v>
+        <v>290679</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1114999436165553</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09839299039237857</v>
+        <v>0.09833991901025221</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.125814327552921</v>
+        <v>0.1239890529585781</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>112006</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>93042</v>
+        <v>91076</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>134701</v>
+        <v>135710</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07962448758153806</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06614340712724064</v>
+        <v>0.06474581291401517</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09575828563218951</v>
+        <v>0.09647578407560309</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>83</v>
@@ -2554,19 +2554,19 @@
         <v>91903</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>73522</v>
+        <v>73471</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111102</v>
+        <v>113159</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09800707145943535</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07840556900657634</v>
+        <v>0.078351155685044</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1184811527899216</v>
+        <v>0.1206750965263645</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>185</v>
@@ -2575,19 +2575,19 @@
         <v>203909</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>175072</v>
+        <v>175776</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>235071</v>
+        <v>232491</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08697721209571979</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0746767363520088</v>
+        <v>0.07497727455559938</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1002695066882403</v>
+        <v>0.09916907763609885</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>293588</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>264993</v>
+        <v>260518</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>327069</v>
+        <v>325493</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2087109446094607</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1883825676087348</v>
+        <v>0.1852014443370812</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2325122010128136</v>
+        <v>0.2313920635452418</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>163</v>
@@ -2625,19 +2625,19 @@
         <v>176334</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>155345</v>
+        <v>155169</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>203430</v>
+        <v>202985</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1880461182124862</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1656622986364352</v>
+        <v>0.1654752918380249</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2169415066882214</v>
+        <v>0.2164670546782912</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>437</v>
@@ -2646,19 +2646,19 @@
         <v>469923</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>431065</v>
+        <v>431015</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>508010</v>
+        <v>511225</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2004453614553408</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1838706043557537</v>
+        <v>0.183849182459204</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2166913879356115</v>
+        <v>0.2180626634734836</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>301099</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>268710</v>
+        <v>271899</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>334174</v>
+        <v>335706</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2140503518733906</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1910247830494356</v>
+        <v>0.1932922136962496</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2375633605866004</v>
+        <v>0.2386518632288294</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>177</v>
@@ -2696,19 +2696,19 @@
         <v>187902</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>164114</v>
+        <v>162602</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>215416</v>
+        <v>214035</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2003818599326855</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1750137094698734</v>
+        <v>0.1734020529226805</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2297234344175531</v>
+        <v>0.2282505011290638</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>468</v>
@@ -2717,19 +2717,19 @@
         <v>489001</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>448812</v>
+        <v>451499</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>529510</v>
+        <v>530610</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2085831848835988</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1914407340125751</v>
+        <v>0.1925865721103756</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.225862149098775</v>
+        <v>0.2263314352455639</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>561393</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>526897</v>
+        <v>524772</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>599331</v>
+        <v>604126</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3990918801813154</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3745693537260401</v>
+        <v>0.3730581446760359</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.426062408314538</v>
+        <v>0.429470777992503</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>328</v>
@@ -2767,19 +2767,19 @@
         <v>358768</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>328238</v>
+        <v>329234</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>387284</v>
+        <v>387612</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3825972313546269</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3500395367872458</v>
+        <v>0.3511013523422671</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4130073330491978</v>
+        <v>0.413356328866592</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>854</v>
@@ -2788,19 +2788,19 @@
         <v>920161</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>872572</v>
+        <v>873440</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>969883</v>
+        <v>970842</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3924942979487852</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3721952291547888</v>
+        <v>0.3725656156645795</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4137032281214945</v>
+        <v>0.4141121447631055</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>32171</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23301</v>
+        <v>21532</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45627</v>
+        <v>43992</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1333120119774658</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09655465154363352</v>
+        <v>0.08922455300945133</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1890700677807694</v>
+        <v>0.182295178904233</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -3153,19 +3153,19 @@
         <v>25696</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17844</v>
+        <v>17303</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34984</v>
+        <v>35357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1564599685226491</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1086500158384201</v>
+        <v>0.1053557245836237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.213013003797429</v>
+        <v>0.2152894976129884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -3174,19 +3174,19 @@
         <v>57867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45660</v>
+        <v>44874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73456</v>
+        <v>73644</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1426859844385612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1125870244340043</v>
+        <v>0.1106497724591609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1811259620770782</v>
+        <v>0.1815897671660161</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>29051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19680</v>
+        <v>19867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40307</v>
+        <v>41671</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1203825154485132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08155035537830879</v>
+        <v>0.08232442155590551</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.167027901474661</v>
+        <v>0.1726790261414487</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3224,19 +3224,19 @@
         <v>25502</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17432</v>
+        <v>17374</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35051</v>
+        <v>36487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1552773559616915</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1061401039128363</v>
+        <v>0.1057912567900335</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2134248980856465</v>
+        <v>0.2221662961780654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -3245,19 +3245,19 @@
         <v>54552</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41875</v>
+        <v>42072</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68381</v>
+        <v>69062</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1345134938511365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1032546107317893</v>
+        <v>0.1037386431941165</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1686115325193824</v>
+        <v>0.1702907038814579</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>54067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42121</v>
+        <v>42284</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67346</v>
+        <v>68611</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2240477024779486</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1745440396022074</v>
+        <v>0.1752197858878242</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2790724067036277</v>
+        <v>0.2843122409479125</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -3295,19 +3295,19 @@
         <v>41407</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30697</v>
+        <v>31332</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52386</v>
+        <v>53120</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2521257705070902</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1869117089100621</v>
+        <v>0.1907773295641175</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3189771647912723</v>
+        <v>0.3234452798671544</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>96</v>
@@ -3316,19 +3316,19 @@
         <v>95475</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78850</v>
+        <v>79043</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>114032</v>
+        <v>113269</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.235418167769439</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1944262565175304</v>
+        <v>0.194902940224439</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2811754200104429</v>
+        <v>0.2792950642266591</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>61615</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49515</v>
+        <v>49377</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76966</v>
+        <v>76880</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2553245216910375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2051812087991529</v>
+        <v>0.2046119554960946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3189373890056243</v>
+        <v>0.3185813166408943</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -3366,19 +3366,19 @@
         <v>34348</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25508</v>
+        <v>25534</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44815</v>
+        <v>45048</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2091411994157409</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.155317282609164</v>
+        <v>0.1554742145095973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2728789798731847</v>
+        <v>0.2742936282414202</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -3387,19 +3387,19 @@
         <v>95963</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78812</v>
+        <v>80724</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>113420</v>
+        <v>116191</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2366221714284782</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1943311974155673</v>
+        <v>0.1990465802285408</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2796686625424478</v>
+        <v>0.2865003609523409</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>64417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51880</v>
+        <v>51382</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79808</v>
+        <v>80969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2669332484050349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2149851724975385</v>
+        <v>0.2129181774585194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3307150063289472</v>
+        <v>0.3355258455226654</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -3437,19 +3437,19 @@
         <v>37280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27659</v>
+        <v>27078</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49858</v>
+        <v>48553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2269957055928283</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1684122920164529</v>
+        <v>0.1648775556115928</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3035827913482118</v>
+        <v>0.2956337379390324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>97</v>
@@ -3458,19 +3458,19 @@
         <v>101697</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84491</v>
+        <v>85822</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>122117</v>
+        <v>120534</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2507601825123852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2083349068427428</v>
+        <v>0.2116176886040063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3011130009282184</v>
+        <v>0.2972083651569785</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>51104</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38564</v>
+        <v>38108</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67560</v>
+        <v>65826</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1236653150967945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09331980272009267</v>
+        <v>0.09221566949506924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1634868957964639</v>
+        <v>0.1592902357182662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -3583,19 +3583,19 @@
         <v>31425</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21665</v>
+        <v>22294</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43737</v>
+        <v>44064</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1152147090594383</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07943140643817174</v>
+        <v>0.08173860645160475</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1603546512432752</v>
+        <v>0.1615522970677944</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -3604,19 +3604,19 @@
         <v>82529</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66758</v>
+        <v>66250</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102868</v>
+        <v>101317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1203053698611379</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09731527256668372</v>
+        <v>0.09657447462982545</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1499537518084273</v>
+        <v>0.1476933481989557</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>59976</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46511</v>
+        <v>47151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>77526</v>
+        <v>75103</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1451345742003934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1125513254862266</v>
+        <v>0.1140991339486264</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.187602099684511</v>
+        <v>0.1817389061389161</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -3654,19 +3654,19 @@
         <v>48030</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35507</v>
+        <v>37206</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60481</v>
+        <v>61478</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1760950500451291</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1301818650919985</v>
+        <v>0.1364117607600007</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2217443457092899</v>
+        <v>0.2254001151583058</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>102</v>
@@ -3675,19 +3675,19 @@
         <v>108006</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>90306</v>
+        <v>89005</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>131434</v>
+        <v>130058</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1574444017853421</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1316421149114929</v>
+        <v>0.1297456768215844</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1915951428076481</v>
+        <v>0.189590139301453</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>97787</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80595</v>
+        <v>81104</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116707</v>
+        <v>115318</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2366307970246935</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1950282330055438</v>
+        <v>0.1962596879776214</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2824153794740571</v>
+        <v>0.2790542431601117</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>69</v>
@@ -3725,19 +3725,19 @@
         <v>68210</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55439</v>
+        <v>54182</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>83467</v>
+        <v>81777</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.250082728174144</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2032601457816599</v>
+        <v>0.1986506565777013</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3060175443862554</v>
+        <v>0.2998221463791424</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>158</v>
@@ -3746,19 +3746,19 @@
         <v>165997</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>143495</v>
+        <v>142617</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>187750</v>
+        <v>189247</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2419792598185072</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2091780143246268</v>
+        <v>0.2078973011331033</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2736885548510308</v>
+        <v>0.2758709231069277</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>99411</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83072</v>
+        <v>82940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120290</v>
+        <v>118503</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2405619687220944</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2010220260494081</v>
+        <v>0.2007028666383857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2910861431844505</v>
+        <v>0.2867610483437693</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -3796,19 +3796,19 @@
         <v>61229</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47473</v>
+        <v>47792</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74360</v>
+        <v>74717</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2244861599222613</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1740513356389934</v>
+        <v>0.1752203405696052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2726310085075614</v>
+        <v>0.2739393555017215</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>148</v>
@@ -3817,19 +3817,19 @@
         <v>160640</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>138789</v>
+        <v>139358</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183604</v>
+        <v>187125</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2341702570569717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2023169774403086</v>
+        <v>0.2031460112693116</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2676456798792563</v>
+        <v>0.2727780489909699</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>104968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>87213</v>
+        <v>85147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>124485</v>
+        <v>124337</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2540073449560242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2110431274793087</v>
+        <v>0.2060441898418055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3012363565447746</v>
+        <v>0.3008794043206754</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -3867,19 +3867,19 @@
         <v>63857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51045</v>
+        <v>50721</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80755</v>
+        <v>79425</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2341213527990273</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1871477245300199</v>
+        <v>0.1859596811475482</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2960773233390424</v>
+        <v>0.2911985821508819</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>153</v>
@@ -3888,19 +3888,19 @@
         <v>168824</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145990</v>
+        <v>145727</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>192524</v>
+        <v>193239</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2461007114780411</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2128146146962972</v>
+        <v>0.2124311700059287</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2806487079208211</v>
+        <v>0.281691342035769</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>46083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34253</v>
+        <v>34266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60135</v>
+        <v>61245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1270299529410177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09442036206441094</v>
+        <v>0.09445596787311693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1657651270183578</v>
+        <v>0.1688261595044836</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -4013,19 +4013,19 @@
         <v>33567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24337</v>
+        <v>23504</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46415</v>
+        <v>45532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1245430626610426</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09029584776285354</v>
+        <v>0.08720725511400119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1722094575691115</v>
+        <v>0.1689366989970947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -4034,19 +4034,19 @@
         <v>79650</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62471</v>
+        <v>63312</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96856</v>
+        <v>97179</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1259698810929206</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09880087730269144</v>
+        <v>0.1001300480741559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1531821162378174</v>
+        <v>0.1536927235556927</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>78648</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62446</v>
+        <v>61091</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95906</v>
+        <v>94686</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2167998096163525</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1721360829301217</v>
+        <v>0.1684011329946558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2643710891970435</v>
+        <v>0.2610085418718077</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -4084,19 +4084,19 @@
         <v>64821</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51574</v>
+        <v>53135</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78650</v>
+        <v>80466</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.240503483720129</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1913520734452112</v>
+        <v>0.1971450745284285</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.291811176744517</v>
+        <v>0.2985484481063337</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -4105,19 +4105,19 @@
         <v>143470</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121517</v>
+        <v>122365</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>165049</v>
+        <v>164749</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2269038330291322</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1921837759776522</v>
+        <v>0.1935252428908036</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.261032661823109</v>
+        <v>0.2605577785719284</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>110361</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92838</v>
+        <v>92069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>130250</v>
+        <v>129309</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3042170595565735</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2559130838747966</v>
+        <v>0.2537934489298813</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.35904363859573</v>
+        <v>0.3564488492859416</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -4155,19 +4155,19 @@
         <v>77642</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63418</v>
+        <v>62450</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>92880</v>
+        <v>92451</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2880720289146186</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2352959690336646</v>
+        <v>0.231703061900311</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3446077645317802</v>
+        <v>0.343017484088297</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>175</v>
@@ -4176,19 +4176,19 @@
         <v>188003</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>167146</v>
+        <v>164589</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>212777</v>
+        <v>212037</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2973350138917469</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2643481032288446</v>
+        <v>0.2603046756974232</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3365157550950643</v>
+        <v>0.3353456039826924</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>59245</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45862</v>
+        <v>44845</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74778</v>
+        <v>73856</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1633123375811552</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1264207906931937</v>
+        <v>0.1236191666694786</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2061303901312505</v>
+        <v>0.2035899325718337</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -4226,19 +4226,19 @@
         <v>35512</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25501</v>
+        <v>25809</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47380</v>
+        <v>47870</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1317593956496871</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09461601482428224</v>
+        <v>0.09575771679254305</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1757931252586935</v>
+        <v>0.1776096305100952</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -4247,19 +4247,19 @@
         <v>94757</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78110</v>
+        <v>75888</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115419</v>
+        <v>114035</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1498624537099101</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1235343008637922</v>
+        <v>0.1200207248888714</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1825400978191174</v>
+        <v>0.1803513198066911</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>68433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>55025</v>
+        <v>54989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84995</v>
+        <v>83997</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1886408403049012</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1516813494323707</v>
+        <v>0.1515813845571449</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2342956798995585</v>
+        <v>0.2315437375658516</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -4297,19 +4297,19 @@
         <v>57981</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45501</v>
+        <v>45289</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72386</v>
+        <v>73179</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2151220290545227</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1688195679304807</v>
+        <v>0.1680324482959245</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2685704566506197</v>
+        <v>0.2715122123999196</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>119</v>
@@ -4318,19 +4318,19 @@
         <v>126414</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>108446</v>
+        <v>107654</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>148542</v>
+        <v>148116</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1999288182762902</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1715112382301181</v>
+        <v>0.1702587146908088</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2349260235744043</v>
+        <v>0.2342511804203994</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>52095</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39199</v>
+        <v>39105</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67193</v>
+        <v>65935</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1305643944255785</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09824349048956693</v>
+        <v>0.09800800819415172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1684021572052534</v>
+        <v>0.1652505438101758</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -4443,19 +4443,19 @@
         <v>65284</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52374</v>
+        <v>51117</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82529</v>
+        <v>82342</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2005813274924607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.160915981987283</v>
+        <v>0.157053675802388</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2535656924506112</v>
+        <v>0.2529904329266239</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>112</v>
@@ -4464,19 +4464,19 @@
         <v>117379</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96156</v>
+        <v>98617</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>137284</v>
+        <v>139571</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1620198745029142</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1327251031606052</v>
+        <v>0.1361215449009478</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1894950127118145</v>
+        <v>0.1926513824274746</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>57216</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44641</v>
+        <v>44222</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>70453</v>
+        <v>72464</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1433985095058055</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1118815592077474</v>
+        <v>0.1108309105628889</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1765729921850134</v>
+        <v>0.1816128862685476</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>48</v>
@@ -4514,19 +4514,19 @@
         <v>50469</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>38483</v>
+        <v>37858</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>65439</v>
+        <v>65118</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1550629730913109</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1182376333633086</v>
+        <v>0.1163175881385693</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2010569359378082</v>
+        <v>0.2000700084871228</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>105</v>
@@ -4535,19 +4535,19 @@
         <v>107685</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>90528</v>
+        <v>89165</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>127599</v>
+        <v>126413</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1486388318943367</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1249563872037667</v>
+        <v>0.1230758635159546</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1761263975073064</v>
+        <v>0.1744891627930685</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>100297</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>83733</v>
+        <v>85363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>118039</v>
+        <v>118130</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2513702388310439</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2098560937614781</v>
+        <v>0.2139409661147584</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2958374643946217</v>
+        <v>0.2960647033305835</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>74</v>
@@ -4585,19 +4585,19 @@
         <v>76334</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>60980</v>
+        <v>62426</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>92061</v>
+        <v>93228</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2345315837918347</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1873579532797088</v>
+        <v>0.1918012671485884</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2828507892541034</v>
+        <v>0.2864388254116689</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>173</v>
@@ -4606,19 +4606,19 @@
         <v>176631</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>155708</v>
+        <v>155384</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>199443</v>
+        <v>200737</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2438053833751641</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2149251534557647</v>
+        <v>0.2144779092251804</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2752926756339723</v>
+        <v>0.2770787066960766</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>76292</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61611</v>
+        <v>60706</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>93742</v>
+        <v>94632</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1912073355871379</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1544133028709431</v>
+        <v>0.1521442245632161</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2349426630342348</v>
+        <v>0.2371734432836243</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -4656,19 +4656,19 @@
         <v>59449</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46627</v>
+        <v>46434</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74197</v>
+        <v>76052</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1826535171336703</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1432573758391055</v>
+        <v>0.1426661776077151</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2279660724114661</v>
+        <v>0.2336662952313268</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -4677,19 +4677,19 @@
         <v>135741</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114544</v>
+        <v>116292</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>157212</v>
+        <v>158536</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1873644870908866</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1581055806920755</v>
+        <v>0.1605188262887619</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2170009089347049</v>
+        <v>0.2188289780074141</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>113101</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>96995</v>
+        <v>96200</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>134242</v>
+        <v>133776</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2834595216504342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2430943367280769</v>
+        <v>0.2411010682593379</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3364463886521864</v>
+        <v>0.3352785799221237</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -4727,19 +4727,19 @@
         <v>73938</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58811</v>
+        <v>59178</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>90763</v>
+        <v>91392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2271705984907234</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1806920091766964</v>
+        <v>0.1818198597623941</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.278863084334366</v>
+        <v>0.2807969262883226</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>177</v>
@@ -4748,19 +4748,19 @@
         <v>187039</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>163228</v>
+        <v>163079</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>210128</v>
+        <v>211601</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2581714231366984</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2253049507067478</v>
+        <v>0.2251002329034703</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2900416223008772</v>
+        <v>0.2920745373190411</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>181453</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>156314</v>
+        <v>158277</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>213107</v>
+        <v>210496</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1281143089330499</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1103652759262319</v>
+        <v>0.1117509877520009</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1504636054651228</v>
+        <v>0.1486198790116132</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>154</v>
@@ -4873,19 +4873,19 @@
         <v>155972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>134470</v>
+        <v>134517</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>180906</v>
+        <v>179726</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1511384624453284</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1303030155977221</v>
+        <v>0.1303486731341208</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1752998928961585</v>
+        <v>0.1741564262262325</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>319</v>
@@ -4894,19 +4894,19 @@
         <v>337425</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>303503</v>
+        <v>298419</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>373810</v>
+        <v>369866</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1378191347561786</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1239638436379991</v>
+        <v>0.1218873998427261</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.152680180111026</v>
+        <v>0.1510695204631233</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>224892</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>197387</v>
+        <v>197804</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>255991</v>
+        <v>253777</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1587839403078326</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1393644584993994</v>
+        <v>0.1396589249419461</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.180741644995669</v>
+        <v>0.1791787082115796</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>187</v>
@@ -4944,19 +4944,19 @@
         <v>188822</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>165072</v>
+        <v>165758</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>215021</v>
+        <v>214513</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1829704497838535</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1599561963641669</v>
+        <v>0.1606207252853838</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2083570341683391</v>
+        <v>0.2078652186189791</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>396</v>
@@ -4965,19 +4965,19 @@
         <v>413714</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>378637</v>
+        <v>377754</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>455692</v>
+        <v>452371</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1689787064958299</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1546520486614432</v>
+        <v>0.1542911343515068</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1861243598451608</v>
+        <v>0.1847679278116919</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>362512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>330068</v>
+        <v>329880</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>398485</v>
+        <v>397903</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2559501661815195</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2330430986586944</v>
+        <v>0.2329104154494386</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2813488515606303</v>
+        <v>0.280938285637594</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>262</v>
@@ -5015,19 +5015,19 @@
         <v>263594</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>236828</v>
+        <v>237315</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>294133</v>
+        <v>291936</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2554249434927726</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2294888871738673</v>
+        <v>0.2299602123354729</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2850174389544781</v>
+        <v>0.2828882880332569</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>602</v>
@@ -5036,19 +5036,19 @@
         <v>626105</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>582556</v>
+        <v>578661</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>671295</v>
+        <v>668965</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2557287815078148</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2379413175080911</v>
+        <v>0.2363506219456906</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2741862371252232</v>
+        <v>0.273234656315072</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>296563</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>266245</v>
+        <v>265220</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>330007</v>
+        <v>328249</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2093872875180533</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1879816250648257</v>
+        <v>0.1872577901912385</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2330002802810571</v>
+        <v>0.2317592110070219</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>187</v>
@@ -5086,19 +5086,19 @@
         <v>190538</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>167301</v>
+        <v>165899</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>214981</v>
+        <v>216972</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1846330474943618</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1621160319890174</v>
+        <v>0.1607576460280092</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2083188653349954</v>
+        <v>0.2102476871134535</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>462</v>
@@ -5107,19 +5107,19 @@
         <v>487101</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>449510</v>
+        <v>449225</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>526872</v>
+        <v>529375</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1989532193258945</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1835993832266706</v>
+        <v>0.1834831788909915</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2151973961354663</v>
+        <v>0.2162197121424936</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>350918</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>321455</v>
+        <v>319172</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>386719</v>
+        <v>383337</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2477642970595447</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2269621508631427</v>
+        <v>0.2253499709967105</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2730416496171114</v>
+        <v>0.2706538474220149</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>218</v>
@@ -5157,19 +5157,19 @@
         <v>233056</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>204445</v>
+        <v>208251</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>260312</v>
+        <v>263628</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2258330967836837</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1981095525970482</v>
+        <v>0.2017970730440551</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2522445316981143</v>
+        <v>0.2554577745541929</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>546</v>
@@ -5178,19 +5178,19 @@
         <v>583973</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>542715</v>
+        <v>547359</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>625484</v>
+        <v>630830</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2385201579142824</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2216685666999541</v>
+        <v>0.2235653122585222</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2554748250609022</v>
+        <v>0.257658488846857</v>
       </c>
     </row>
     <row r="33">
